--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_vJL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_vJL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\Documents\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C6E11-A061-4610-AEA7-2703A6850D72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E28B4-4767-4A9B-B56F-A3B669C48018}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
@@ -3243,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C50BC-E72F-4DD9-8985-1B184AC291FB}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="A21:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3594,6 +3594,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -3816,12 +3822,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3832,6 +3832,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3850,23 +3867,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
   <ds:schemaRefs>

--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_vJL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_vJL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\Documents\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E28B4-4767-4A9B-B56F-A3B669C48018}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229753DA-1218-4DEA-ABE4-6D0EA590914E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
@@ -3243,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C50BC-E72F-4DD9-8985-1B184AC291FB}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3594,12 +3594,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -3822,6 +3816,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3832,23 +3832,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3867,6 +3850,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
   <ds:schemaRefs>
